--- a/JDD.xlsx
+++ b/JDD.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="feuille_jdd" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="feuille_individuelle" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="feuille_individuelle" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>Nom variable</t>
   </si>
@@ -89,6 +89,9 @@
     <t>Pompe à chaleur</t>
   </si>
   <si>
+    <t>Pompe a velo</t>
+  </si>
+  <si>
     <t>emetteur_de_chaleur_actuels</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>Saisir surface habitable</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>civilite</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
     <t>Saisir numero de rue</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>nom_rue</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
     <t>Saisir code postal</t>
   </si>
   <si>
+    <t>49100</t>
+  </si>
+  <si>
     <t>ville</t>
   </si>
   <si>
@@ -210,6 +222,9 @@
   </si>
   <si>
     <t>Saisir date de rendez vous souhaite</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
   </si>
   <si>
     <t>Individuel_1</t>
@@ -246,9 +261,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="9">
     <font>
       <sz val="10.0"/>
@@ -349,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -405,19 +417,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -733,7 +739,9 @@
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
@@ -755,7 +763,9 @@
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
@@ -767,187 +777,219 @@
       <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="C13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="C14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="C15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="D16" s="16"/>
+      <c r="B16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="B18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="B21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="20">
-        <v>15.0</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="A22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="16"/>
+      <c r="A23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="20">
-        <v>49100.0</v>
-      </c>
-      <c r="D24" s="16"/>
+      <c r="A24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="16"/>
+      <c r="A25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="23">
-        <v>45292.0</v>
-      </c>
-      <c r="D26" s="16"/>
+      <c r="A26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -980,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -1030,13 +1072,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1058,36 +1100,36 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
